--- a/techBoost_学習スケジュール.xlsx
+++ b/techBoost_学習スケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyFolder\0_techBoost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyFolder\0_Git\techBoost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF694355-7421-4E8F-9F4F-4EE017F92351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C985A22-4C92-4320-9CFD-B7D6FAD1A14F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2310" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{97532F97-5F09-4ED9-A534-720AED6E5078}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{97532F97-5F09-4ED9-A534-720AED6E5078}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="54">
   <si>
     <t>Ruby on Rails</t>
     <phoneticPr fontId="1"/>
@@ -194,6 +194,35 @@
   </si>
   <si>
     <t>■</t>
+  </si>
+  <si>
+    <t>Railsコース - Herokuへの画像のアップロード</t>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RailsEX01 メールの送信を行う	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RailsEX02 Railsの日本語化を行う	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RailsEX03 様々なバリデーションについて理解する	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RailsEX04 コールバックについて理解する	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RailsEX05 部分テンプレートについて理解する	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RailsEX06 フィルタについて理解する	</t>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -417,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,7 +522,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,6 +544,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,8 +567,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,10 +1028,10 @@
     </row>
     <row r="2" spans="1:98" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1296,10 +1334,10 @@
     </row>
     <row r="5" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
@@ -1586,8 +1624,8 @@
     </row>
     <row r="6" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
@@ -1874,8 +1912,8 @@
     </row>
     <row r="7" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
@@ -2162,11 +2200,11 @@
     </row>
     <row r="8" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -2269,10 +2307,10 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
@@ -2377,10 +2415,10 @@
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
@@ -2485,10 +2523,10 @@
       <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9" t="s">
@@ -2593,10 +2631,10 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9" t="s">
@@ -2698,11 +2736,11 @@
     </row>
     <row r="13" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2805,10 +2843,10 @@
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="9" t="s">
@@ -2913,10 +2951,10 @@
       <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="9" t="s">
@@ -3021,10 +3059,10 @@
       <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="9" t="s">
@@ -3129,10 +3167,10 @@
       <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
@@ -3237,10 +3275,10 @@
       <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
@@ -3342,11 +3380,11 @@
     </row>
     <row r="19" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -3449,10 +3487,10 @@
       <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
@@ -3557,10 +3595,10 @@
       <c r="B21" s="4">
         <v>11</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
@@ -3665,10 +3703,10 @@
       <c r="B22" s="4">
         <v>12</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
@@ -3773,10 +3811,10 @@
       <c r="B23" s="4">
         <v>13</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
@@ -3878,11 +3916,11 @@
     </row>
     <row r="24" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -3985,10 +4023,10 @@
       <c r="B25" s="4">
         <v>14</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
@@ -4091,10 +4129,10 @@
       <c r="B26" s="4">
         <v>15</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
@@ -4197,10 +4235,10 @@
       <c r="B27" s="4">
         <v>16</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
@@ -4303,10 +4341,10 @@
       <c r="B28" s="4">
         <v>17</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
@@ -4409,10 +4447,10 @@
       <c r="B29" s="4">
         <v>18</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
@@ -4515,10 +4553,10 @@
       <c r="B30" s="4">
         <v>19</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
@@ -4621,10 +4659,10 @@
       <c r="B31" s="4">
         <v>20</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
@@ -4727,10 +4765,10 @@
       <c r="B32" s="4">
         <v>21</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
@@ -4833,10 +4871,10 @@
       <c r="B33" s="4">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
@@ -4936,11 +4974,11 @@
     </row>
     <row r="34" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -5043,10 +5081,10 @@
       <c r="B35" s="4">
         <v>23</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -5248,12 +5286,12 @@
     </row>
     <row r="37" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="27" t="str">
         <f>"メンタリング (残り："&amp;12-COUNTIF(E37:CR37,"■")&amp;" / 12)"</f>
         <v>メンタリング (残り：11 / 12)</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
@@ -5780,6 +5818,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C17:D17"/>
@@ -5796,21 +5849,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5819,13 +5857,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291A6812-8847-4B26-82CB-38DFC476CFF2}">
-  <dimension ref="A1:CT42"/>
+  <dimension ref="A1:CT49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="AM23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="V27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AX42" sqref="AX42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5940,10 +5978,10 @@
     </row>
     <row r="2" spans="1:98" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6309,7 +6347,7 @@
       </c>
       <c r="AS4" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>今</v>
+        <v/>
       </c>
       <c r="AT4" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6321,7 +6359,7 @@
       </c>
       <c r="AV4" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>今</v>
       </c>
       <c r="AW4" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6522,10 +6560,10 @@
     </row>
     <row r="5" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
@@ -6812,8 +6850,8 @@
     </row>
     <row r="6" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
@@ -7100,8 +7138,8 @@
     </row>
     <row r="7" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
@@ -7388,11 +7426,11 @@
     </row>
     <row r="8" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -7495,10 +7533,10 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
@@ -7603,10 +7641,10 @@
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
@@ -7711,10 +7749,10 @@
       <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9" t="s">
@@ -7819,10 +7857,10 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9" t="s">
@@ -7926,11 +7964,11 @@
     </row>
     <row r="13" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -8033,10 +8071,10 @@
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="9" t="s">
@@ -8143,10 +8181,10 @@
       <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="9" t="s">
@@ -8253,10 +8291,10 @@
       <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="9" t="s">
@@ -8363,10 +8401,10 @@
       <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
@@ -8473,10 +8511,10 @@
       <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
@@ -8580,11 +8618,11 @@
     </row>
     <row r="19" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -8687,10 +8725,10 @@
       <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
@@ -8797,10 +8835,10 @@
       <c r="B21" s="4">
         <v>11</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
@@ -8907,10 +8945,10 @@
       <c r="B22" s="4">
         <v>12</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
@@ -9017,10 +9055,10 @@
       <c r="B23" s="4">
         <v>13</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
@@ -9124,11 +9162,11 @@
     </row>
     <row r="24" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -9231,10 +9269,10 @@
       <c r="B25" s="4">
         <v>14</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
@@ -9341,10 +9379,10 @@
       <c r="B26" s="4">
         <v>15</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
@@ -9451,10 +9489,10 @@
       <c r="B27" s="4">
         <v>16</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
@@ -9561,10 +9599,10 @@
       <c r="B28" s="4">
         <v>17</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
@@ -9671,10 +9709,10 @@
       <c r="B29" s="4">
         <v>18</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
@@ -9783,10 +9821,10 @@
       <c r="B30" s="4">
         <v>19</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
@@ -9895,10 +9933,10 @@
       <c r="B31" s="4">
         <v>20</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
@@ -10007,10 +10045,10 @@
       <c r="B32" s="4">
         <v>21</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
@@ -10053,11 +10091,17 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
       <c r="AP32" s="11"/>
-      <c r="AQ32" s="12"/>
+      <c r="AQ32" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
-      <c r="AT32" s="10"/>
-      <c r="AU32" s="10"/>
+      <c r="AT32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU32" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="AV32" s="10"/>
       <c r="AW32" s="11"/>
       <c r="AX32" s="12"/>
@@ -10117,10 +10161,10 @@
       <c r="B33" s="4">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
@@ -10166,7 +10210,9 @@
       <c r="AS33" s="10"/>
       <c r="AT33" s="10"/>
       <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
+      <c r="AV33" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="AW33" s="11"/>
       <c r="AX33" s="12"/>
       <c r="AY33" s="10"/>
@@ -10222,103 +10268,109 @@
     </row>
     <row r="34" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="8"/>
-      <c r="AO34" s="8"/>
-      <c r="AP34" s="8"/>
-      <c r="AQ34" s="8"/>
-      <c r="AR34" s="8"/>
-      <c r="AS34" s="8"/>
-      <c r="AT34" s="8"/>
-      <c r="AU34" s="8"/>
-      <c r="AV34" s="8"/>
-      <c r="AW34" s="8"/>
-      <c r="AX34" s="8"/>
-      <c r="AY34" s="8"/>
-      <c r="AZ34" s="8"/>
-      <c r="BA34" s="8"/>
-      <c r="BB34" s="8"/>
-      <c r="BC34" s="8"/>
-      <c r="BD34" s="8"/>
-      <c r="BE34" s="8"/>
-      <c r="BF34" s="8"/>
-      <c r="BG34" s="8"/>
-      <c r="BH34" s="8"/>
-      <c r="BI34" s="8"/>
-      <c r="BJ34" s="8"/>
-      <c r="BK34" s="8"/>
-      <c r="BL34" s="8"/>
-      <c r="BM34" s="8"/>
-      <c r="BN34" s="8"/>
-      <c r="BO34" s="8"/>
-      <c r="BP34" s="8"/>
-      <c r="BQ34" s="8"/>
-      <c r="BR34" s="8"/>
-      <c r="BS34" s="8"/>
-      <c r="BT34" s="8"/>
-      <c r="BU34" s="8"/>
-      <c r="BV34" s="8"/>
-      <c r="BW34" s="8"/>
-      <c r="BX34" s="8"/>
-      <c r="BY34" s="8"/>
-      <c r="BZ34" s="8"/>
-      <c r="CA34" s="8"/>
-      <c r="CB34" s="8"/>
-      <c r="CC34" s="8"/>
-      <c r="CD34" s="8"/>
-      <c r="CE34" s="8"/>
-      <c r="CF34" s="8"/>
-      <c r="CG34" s="8"/>
-      <c r="CH34" s="8"/>
-      <c r="CI34" s="8"/>
-      <c r="CJ34" s="8"/>
-      <c r="CK34" s="8"/>
-      <c r="CL34" s="8"/>
-      <c r="CM34" s="8"/>
-      <c r="CN34" s="8"/>
-      <c r="CO34" s="8"/>
-      <c r="CP34" s="8"/>
-      <c r="CQ34" s="8"/>
-      <c r="CR34" s="8"/>
+      <c r="B34" s="26">
+        <v>23</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="12"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="11"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="10"/>
+      <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
+      <c r="BY34" s="11"/>
+      <c r="BZ34" s="12"/>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="10"/>
+      <c r="CC34" s="10"/>
+      <c r="CD34" s="10"/>
+      <c r="CE34" s="10"/>
+      <c r="CF34" s="11"/>
+      <c r="CG34" s="12"/>
+      <c r="CH34" s="10"/>
+      <c r="CI34" s="10"/>
+      <c r="CJ34" s="10"/>
+      <c r="CK34" s="10"/>
+      <c r="CL34" s="10"/>
+      <c r="CM34" s="11"/>
+      <c r="CN34" s="12"/>
+      <c r="CO34" s="10"/>
+      <c r="CP34" s="10"/>
+      <c r="CQ34" s="10"/>
+      <c r="CR34" s="10"/>
       <c r="CS34" s="1"/>
       <c r="CT34" s="2" t="s">
         <v>37</v>
@@ -10326,13 +10378,13 @@
     </row>
     <row r="35" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="4">
-        <v>23</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="27"/>
+      <c r="B35" s="26">
+        <v>24</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="25"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -10367,64 +10419,64 @@
       <c r="AJ35" s="12"/>
       <c r="AK35" s="10"/>
       <c r="AL35" s="10"/>
-      <c r="AM35" s="9"/>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="9"/>
-      <c r="AP35" s="9"/>
-      <c r="AQ35" s="9"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="9"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
       <c r="AT35" s="9"/>
       <c r="AU35" s="9"/>
-      <c r="AV35" s="9"/>
-      <c r="AW35" s="9"/>
-      <c r="AX35" s="9"/>
-      <c r="AY35" s="9"/>
-      <c r="AZ35" s="9"/>
-      <c r="BA35" s="9"/>
-      <c r="BB35" s="9"/>
-      <c r="BC35" s="9"/>
-      <c r="BD35" s="9"/>
-      <c r="BE35" s="9"/>
-      <c r="BF35" s="9"/>
-      <c r="BG35" s="9"/>
-      <c r="BH35" s="9"/>
-      <c r="BI35" s="9"/>
-      <c r="BJ35" s="9"/>
-      <c r="BK35" s="9"/>
-      <c r="BL35" s="9"/>
-      <c r="BM35" s="9"/>
-      <c r="BN35" s="9"/>
-      <c r="BO35" s="9"/>
-      <c r="BP35" s="9"/>
-      <c r="BQ35" s="9"/>
-      <c r="BR35" s="9"/>
-      <c r="BS35" s="9"/>
-      <c r="BT35" s="9"/>
-      <c r="BU35" s="9"/>
-      <c r="BV35" s="9"/>
-      <c r="BW35" s="9"/>
-      <c r="BX35" s="9"/>
-      <c r="BY35" s="9"/>
-      <c r="BZ35" s="9"/>
-      <c r="CA35" s="9"/>
-      <c r="CB35" s="9"/>
-      <c r="CC35" s="9"/>
-      <c r="CD35" s="9"/>
-      <c r="CE35" s="9"/>
-      <c r="CF35" s="9"/>
-      <c r="CG35" s="9"/>
-      <c r="CH35" s="9"/>
-      <c r="CI35" s="9"/>
-      <c r="CJ35" s="9"/>
-      <c r="CK35" s="9"/>
-      <c r="CL35" s="9"/>
-      <c r="CM35" s="9"/>
-      <c r="CN35" s="9"/>
-      <c r="CO35" s="9"/>
-      <c r="CP35" s="9"/>
-      <c r="CQ35" s="9"/>
-      <c r="CR35" s="9"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="10"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="10"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="10"/>
+      <c r="BG35" s="10"/>
+      <c r="BH35" s="10"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="10"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="12"/>
+      <c r="BM35" s="10"/>
+      <c r="BN35" s="10"/>
+      <c r="BO35" s="10"/>
+      <c r="BP35" s="10"/>
+      <c r="BQ35" s="10"/>
+      <c r="BR35" s="11"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="10"/>
+      <c r="BU35" s="10"/>
+      <c r="BV35" s="10"/>
+      <c r="BW35" s="10"/>
+      <c r="BX35" s="10"/>
+      <c r="BY35" s="11"/>
+      <c r="BZ35" s="12"/>
+      <c r="CA35" s="10"/>
+      <c r="CB35" s="10"/>
+      <c r="CC35" s="10"/>
+      <c r="CD35" s="10"/>
+      <c r="CE35" s="10"/>
+      <c r="CF35" s="11"/>
+      <c r="CG35" s="12"/>
+      <c r="CH35" s="10"/>
+      <c r="CI35" s="10"/>
+      <c r="CJ35" s="10"/>
+      <c r="CK35" s="10"/>
+      <c r="CL35" s="10"/>
+      <c r="CM35" s="11"/>
+      <c r="CN35" s="12"/>
+      <c r="CO35" s="10"/>
+      <c r="CP35" s="10"/>
+      <c r="CQ35" s="10"/>
+      <c r="CR35" s="10"/>
       <c r="CS35" s="1"/>
       <c r="CT35" s="2" t="s">
         <v>37</v>
@@ -10432,101 +10484,105 @@
     </row>
     <row r="36" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
-      <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
-      <c r="BL36" s="1"/>
-      <c r="BM36" s="1"/>
-      <c r="BN36" s="17"/>
-      <c r="BO36" s="1"/>
-      <c r="BP36" s="1"/>
-      <c r="BQ36" s="1"/>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="1"/>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1"/>
-      <c r="BV36" s="1"/>
-      <c r="BW36" s="1"/>
-      <c r="BX36" s="1"/>
-      <c r="BY36" s="1"/>
-      <c r="BZ36" s="1"/>
-      <c r="CA36" s="1"/>
-      <c r="CB36" s="1"/>
-      <c r="CC36" s="1"/>
-      <c r="CD36" s="1"/>
-      <c r="CE36" s="1"/>
-      <c r="CF36" s="1"/>
-      <c r="CG36" s="1"/>
-      <c r="CH36" s="1"/>
-      <c r="CI36" s="1"/>
-      <c r="CJ36" s="1"/>
-      <c r="CK36" s="1"/>
-      <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
-      <c r="CN36" s="1"/>
-      <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
-      <c r="CR36" s="1"/>
+      <c r="B36" s="26">
+        <v>25</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="10"/>
+      <c r="BA36" s="10"/>
+      <c r="BB36" s="10"/>
+      <c r="BC36" s="10"/>
+      <c r="BD36" s="11"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="10"/>
+      <c r="BG36" s="10"/>
+      <c r="BH36" s="10"/>
+      <c r="BI36" s="10"/>
+      <c r="BJ36" s="10"/>
+      <c r="BK36" s="11"/>
+      <c r="BL36" s="12"/>
+      <c r="BM36" s="10"/>
+      <c r="BN36" s="10"/>
+      <c r="BO36" s="10"/>
+      <c r="BP36" s="10"/>
+      <c r="BQ36" s="10"/>
+      <c r="BR36" s="11"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="10"/>
+      <c r="BU36" s="10"/>
+      <c r="BV36" s="10"/>
+      <c r="BW36" s="10"/>
+      <c r="BX36" s="10"/>
+      <c r="BY36" s="11"/>
+      <c r="BZ36" s="12"/>
+      <c r="CA36" s="10"/>
+      <c r="CB36" s="10"/>
+      <c r="CC36" s="10"/>
+      <c r="CD36" s="10"/>
+      <c r="CE36" s="10"/>
+      <c r="CF36" s="11"/>
+      <c r="CG36" s="12"/>
+      <c r="CH36" s="10"/>
+      <c r="CI36" s="10"/>
+      <c r="CJ36" s="10"/>
+      <c r="CK36" s="10"/>
+      <c r="CL36" s="10"/>
+      <c r="CM36" s="11"/>
+      <c r="CN36" s="12"/>
+      <c r="CO36" s="10"/>
+      <c r="CP36" s="10"/>
+      <c r="CQ36" s="10"/>
+      <c r="CR36" s="10"/>
       <c r="CS36" s="1"/>
       <c r="CT36" s="2" t="s">
         <v>37</v>
@@ -10534,126 +10590,105 @@
     </row>
     <row r="37" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="37" t="str">
-        <f>"メンタリング (残り："&amp;12-COUNTIF(E37:CR37,"■")&amp;" / 12)"</f>
-        <v>メンタリング (残り：7 / 12)</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="5"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="5"/>
-      <c r="AX37" s="6"/>
-      <c r="AY37" s="7">
-        <v>6</v>
-      </c>
-      <c r="AZ37" s="4"/>
-      <c r="BA37" s="4"/>
-      <c r="BB37" s="4"/>
-      <c r="BC37" s="4"/>
-      <c r="BD37" s="5"/>
-      <c r="BE37" s="6"/>
-      <c r="BF37" s="7">
-        <v>7</v>
-      </c>
-      <c r="BG37" s="4"/>
-      <c r="BH37" s="4"/>
-      <c r="BI37" s="4"/>
-      <c r="BJ37" s="4"/>
-      <c r="BK37" s="5"/>
-      <c r="BL37" s="6"/>
-      <c r="BM37" s="7">
-        <v>8</v>
-      </c>
-      <c r="BN37" s="4"/>
-      <c r="BO37" s="4"/>
-      <c r="BP37" s="4"/>
-      <c r="BQ37" s="4"/>
-      <c r="BR37" s="5"/>
-      <c r="BS37" s="6"/>
-      <c r="BT37" s="7">
-        <v>9</v>
-      </c>
-      <c r="BU37" s="4"/>
-      <c r="BV37" s="4"/>
-      <c r="BW37" s="4"/>
-      <c r="BX37" s="4"/>
-      <c r="BY37" s="5"/>
-      <c r="BZ37" s="6"/>
-      <c r="CA37" s="7">
-        <v>10</v>
-      </c>
-      <c r="CB37" s="4"/>
-      <c r="CC37" s="4"/>
-      <c r="CD37" s="4"/>
-      <c r="CE37" s="4"/>
-      <c r="CF37" s="5"/>
-      <c r="CG37" s="6"/>
-      <c r="CH37" s="7">
-        <v>11</v>
-      </c>
-      <c r="CI37" s="4"/>
-      <c r="CJ37" s="4"/>
-      <c r="CK37" s="4"/>
-      <c r="CL37" s="4"/>
-      <c r="CM37" s="5"/>
-      <c r="CN37" s="6"/>
-      <c r="CO37" s="4"/>
-      <c r="CP37" s="4"/>
-      <c r="CQ37" s="4"/>
-      <c r="CR37" s="4"/>
+      <c r="B37" s="26">
+        <v>26</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="10"/>
+      <c r="BB37" s="10"/>
+      <c r="BC37" s="10"/>
+      <c r="BD37" s="11"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="10"/>
+      <c r="BG37" s="10"/>
+      <c r="BH37" s="10"/>
+      <c r="BI37" s="10"/>
+      <c r="BJ37" s="10"/>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="10"/>
+      <c r="BN37" s="10"/>
+      <c r="BO37" s="10"/>
+      <c r="BP37" s="10"/>
+      <c r="BQ37" s="10"/>
+      <c r="BR37" s="11"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="10"/>
+      <c r="BU37" s="10"/>
+      <c r="BV37" s="10"/>
+      <c r="BW37" s="10"/>
+      <c r="BX37" s="10"/>
+      <c r="BY37" s="11"/>
+      <c r="BZ37" s="12"/>
+      <c r="CA37" s="10"/>
+      <c r="CB37" s="10"/>
+      <c r="CC37" s="10"/>
+      <c r="CD37" s="10"/>
+      <c r="CE37" s="10"/>
+      <c r="CF37" s="11"/>
+      <c r="CG37" s="12"/>
+      <c r="CH37" s="10"/>
+      <c r="CI37" s="10"/>
+      <c r="CJ37" s="10"/>
+      <c r="CK37" s="10"/>
+      <c r="CL37" s="10"/>
+      <c r="CM37" s="11"/>
+      <c r="CN37" s="12"/>
+      <c r="CO37" s="10"/>
+      <c r="CP37" s="10"/>
+      <c r="CQ37" s="10"/>
+      <c r="CR37" s="10"/>
       <c r="CS37" s="1"/>
       <c r="CT37" s="2" t="s">
         <v>37</v>
@@ -10661,409 +10696,1190 @@
     </row>
     <row r="38" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="18"/>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
-      <c r="BV38" s="1"/>
-      <c r="BW38" s="1"/>
-      <c r="BX38" s="1"/>
-      <c r="BY38" s="1"/>
-      <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
-      <c r="CC38" s="1"/>
-      <c r="CD38" s="1"/>
-      <c r="CE38" s="1"/>
-      <c r="CF38" s="1"/>
-      <c r="CG38" s="1"/>
-      <c r="CH38" s="1"/>
-      <c r="CI38" s="1"/>
-      <c r="CJ38" s="1"/>
-      <c r="CK38" s="1"/>
-      <c r="CL38" s="1"/>
-      <c r="CM38" s="1"/>
-      <c r="CN38" s="1"/>
-      <c r="CO38" s="1"/>
-      <c r="CP38" s="1"/>
-      <c r="CQ38" s="1"/>
-      <c r="CR38" s="1"/>
+      <c r="B38" s="26">
+        <v>27</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="11"/>
+      <c r="BE38" s="12"/>
+      <c r="BF38" s="10"/>
+      <c r="BG38" s="10"/>
+      <c r="BH38" s="10"/>
+      <c r="BI38" s="10"/>
+      <c r="BJ38" s="10"/>
+      <c r="BK38" s="11"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="10"/>
+      <c r="BN38" s="10"/>
+      <c r="BO38" s="10"/>
+      <c r="BP38" s="10"/>
+      <c r="BQ38" s="10"/>
+      <c r="BR38" s="11"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="10"/>
+      <c r="BU38" s="10"/>
+      <c r="BV38" s="10"/>
+      <c r="BW38" s="10"/>
+      <c r="BX38" s="10"/>
+      <c r="BY38" s="11"/>
+      <c r="BZ38" s="12"/>
+      <c r="CA38" s="10"/>
+      <c r="CB38" s="10"/>
+      <c r="CC38" s="10"/>
+      <c r="CD38" s="10"/>
+      <c r="CE38" s="10"/>
+      <c r="CF38" s="11"/>
+      <c r="CG38" s="12"/>
+      <c r="CH38" s="10"/>
+      <c r="CI38" s="10"/>
+      <c r="CJ38" s="10"/>
+      <c r="CK38" s="10"/>
+      <c r="CL38" s="10"/>
+      <c r="CM38" s="11"/>
+      <c r="CN38" s="12"/>
+      <c r="CO38" s="10"/>
+      <c r="CP38" s="10"/>
+      <c r="CQ38" s="10"/>
+      <c r="CR38" s="10"/>
       <c r="CS38" s="1"/>
       <c r="CT38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CA39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CG39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CI39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CN39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CS39" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="26">
+        <v>28</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="10"/>
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="10"/>
+      <c r="BA39" s="10"/>
+      <c r="BB39" s="10"/>
+      <c r="BC39" s="10"/>
+      <c r="BD39" s="11"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="10"/>
+      <c r="BG39" s="10"/>
+      <c r="BH39" s="10"/>
+      <c r="BI39" s="10"/>
+      <c r="BJ39" s="10"/>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="10"/>
+      <c r="BN39" s="10"/>
+      <c r="BO39" s="10"/>
+      <c r="BP39" s="10"/>
+      <c r="BQ39" s="10"/>
+      <c r="BR39" s="11"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="10"/>
+      <c r="BU39" s="10"/>
+      <c r="BV39" s="10"/>
+      <c r="BW39" s="10"/>
+      <c r="BX39" s="10"/>
+      <c r="BY39" s="11"/>
+      <c r="BZ39" s="12"/>
+      <c r="CA39" s="10"/>
+      <c r="CB39" s="10"/>
+      <c r="CC39" s="10"/>
+      <c r="CD39" s="10"/>
+      <c r="CE39" s="10"/>
+      <c r="CF39" s="11"/>
+      <c r="CG39" s="12"/>
+      <c r="CH39" s="10"/>
+      <c r="CI39" s="10"/>
+      <c r="CJ39" s="10"/>
+      <c r="CK39" s="10"/>
+      <c r="CL39" s="10"/>
+      <c r="CM39" s="11"/>
+      <c r="CN39" s="12"/>
+      <c r="CO39" s="10"/>
+      <c r="CP39" s="10"/>
+      <c r="CQ39" s="10"/>
+      <c r="CR39" s="10"/>
+      <c r="CS39" s="1"/>
       <c r="CT39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="26">
+        <v>29</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="10"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="10"/>
+      <c r="BA40" s="10"/>
+      <c r="BB40" s="10"/>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="11"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="10"/>
+      <c r="BH40" s="10"/>
+      <c r="BI40" s="10"/>
+      <c r="BJ40" s="10"/>
+      <c r="BK40" s="11"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="10"/>
+      <c r="BN40" s="10"/>
+      <c r="BO40" s="10"/>
+      <c r="BP40" s="10"/>
+      <c r="BQ40" s="10"/>
+      <c r="BR40" s="11"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="10"/>
+      <c r="BU40" s="10"/>
+      <c r="BV40" s="10"/>
+      <c r="BW40" s="10"/>
+      <c r="BX40" s="10"/>
+      <c r="BY40" s="11"/>
+      <c r="BZ40" s="12"/>
+      <c r="CA40" s="10"/>
+      <c r="CB40" s="10"/>
+      <c r="CC40" s="10"/>
+      <c r="CD40" s="10"/>
+      <c r="CE40" s="10"/>
+      <c r="CF40" s="11"/>
+      <c r="CG40" s="12"/>
+      <c r="CH40" s="10"/>
+      <c r="CI40" s="10"/>
+      <c r="CJ40" s="10"/>
+      <c r="CK40" s="10"/>
+      <c r="CL40" s="10"/>
+      <c r="CM40" s="11"/>
+      <c r="CN40" s="12"/>
+      <c r="CO40" s="10"/>
+      <c r="CP40" s="10"/>
+      <c r="CQ40" s="10"/>
+      <c r="CR40" s="10"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="8"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
+      <c r="BC41" s="8"/>
+      <c r="BD41" s="8"/>
+      <c r="BE41" s="8"/>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+      <c r="BI41" s="8"/>
+      <c r="BJ41" s="8"/>
+      <c r="BK41" s="8"/>
+      <c r="BL41" s="8"/>
+      <c r="BM41" s="8"/>
+      <c r="BN41" s="8"/>
+      <c r="BO41" s="8"/>
+      <c r="BP41" s="8"/>
+      <c r="BQ41" s="8"/>
+      <c r="BR41" s="8"/>
+      <c r="BS41" s="8"/>
+      <c r="BT41" s="8"/>
+      <c r="BU41" s="8"/>
+      <c r="BV41" s="8"/>
+      <c r="BW41" s="8"/>
+      <c r="BX41" s="8"/>
+      <c r="BY41" s="8"/>
+      <c r="BZ41" s="8"/>
+      <c r="CA41" s="8"/>
+      <c r="CB41" s="8"/>
+      <c r="CC41" s="8"/>
+      <c r="CD41" s="8"/>
+      <c r="CE41" s="8"/>
+      <c r="CF41" s="8"/>
+      <c r="CG41" s="8"/>
+      <c r="CH41" s="8"/>
+      <c r="CI41" s="8"/>
+      <c r="CJ41" s="8"/>
+      <c r="CK41" s="8"/>
+      <c r="CL41" s="8"/>
+      <c r="CM41" s="8"/>
+      <c r="CN41" s="8"/>
+      <c r="CO41" s="8"/>
+      <c r="CP41" s="8"/>
+      <c r="CQ41" s="8"/>
+      <c r="CR41" s="8"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="4">
+        <v>30</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV42" s="9"/>
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="9"/>
+      <c r="BC42" s="9"/>
+      <c r="BD42" s="9"/>
+      <c r="BE42" s="9"/>
+      <c r="BF42" s="9"/>
+      <c r="BG42" s="9"/>
+      <c r="BH42" s="9"/>
+      <c r="BI42" s="9"/>
+      <c r="BJ42" s="9"/>
+      <c r="BK42" s="9"/>
+      <c r="BL42" s="9"/>
+      <c r="BM42" s="9"/>
+      <c r="BN42" s="9"/>
+      <c r="BO42" s="9"/>
+      <c r="BP42" s="9"/>
+      <c r="BQ42" s="9"/>
+      <c r="BR42" s="9"/>
+      <c r="BS42" s="9"/>
+      <c r="BT42" s="9"/>
+      <c r="BU42" s="9"/>
+      <c r="BV42" s="9"/>
+      <c r="BW42" s="9"/>
+      <c r="BX42" s="9"/>
+      <c r="BY42" s="9"/>
+      <c r="BZ42" s="9"/>
+      <c r="CA42" s="9"/>
+      <c r="CB42" s="9"/>
+      <c r="CC42" s="9"/>
+      <c r="CD42" s="9"/>
+      <c r="CE42" s="9"/>
+      <c r="CF42" s="9"/>
+      <c r="CG42" s="9"/>
+      <c r="CH42" s="9"/>
+      <c r="CI42" s="9"/>
+      <c r="CJ42" s="9"/>
+      <c r="CK42" s="9"/>
+      <c r="CL42" s="9"/>
+      <c r="CM42" s="9"/>
+      <c r="CN42" s="9"/>
+      <c r="CO42" s="9"/>
+      <c r="CP42" s="9"/>
+      <c r="CQ42" s="9"/>
+      <c r="CR42" s="9"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="17"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="27" t="str">
+        <f>"メンタリング (残り："&amp;12-COUNTIF(E44:CR44,"■")&amp;" / 12)"</f>
+        <v>メンタリング (残り：7 / 12)</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="6"/>
+      <c r="AR44" s="24"/>
+      <c r="AS44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="6"/>
+      <c r="AY44" s="7">
+        <v>6</v>
+      </c>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="6"/>
+      <c r="BF44" s="7">
+        <v>7</v>
+      </c>
+      <c r="BG44" s="4"/>
+      <c r="BH44" s="4"/>
+      <c r="BI44" s="4"/>
+      <c r="BJ44" s="4"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="6"/>
+      <c r="BM44" s="7">
+        <v>8</v>
+      </c>
+      <c r="BN44" s="4"/>
+      <c r="BO44" s="4"/>
+      <c r="BP44" s="4"/>
+      <c r="BQ44" s="4"/>
+      <c r="BR44" s="5"/>
+      <c r="BS44" s="6"/>
+      <c r="BT44" s="7">
+        <v>9</v>
+      </c>
+      <c r="BU44" s="4"/>
+      <c r="BV44" s="4"/>
+      <c r="BW44" s="4"/>
+      <c r="BX44" s="4"/>
+      <c r="BY44" s="5"/>
+      <c r="BZ44" s="6"/>
+      <c r="CA44" s="7">
+        <v>10</v>
+      </c>
+      <c r="CB44" s="4"/>
+      <c r="CC44" s="4"/>
+      <c r="CD44" s="4"/>
+      <c r="CE44" s="4"/>
+      <c r="CF44" s="5"/>
+      <c r="CG44" s="6"/>
+      <c r="CH44" s="7">
+        <v>11</v>
+      </c>
+      <c r="CI44" s="4"/>
+      <c r="CJ44" s="4"/>
+      <c r="CK44" s="4"/>
+      <c r="CL44" s="4"/>
+      <c r="CM44" s="5"/>
+      <c r="CN44" s="6"/>
+      <c r="CO44" s="4"/>
+      <c r="CP44" s="4"/>
+      <c r="CQ44" s="4"/>
+      <c r="CR44" s="4"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="18"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CB46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CC46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CF46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CG46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CH46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CI46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CJ46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CK46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CM46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CN46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CO46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CP46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CQ46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CS46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CT46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C7"/>
@@ -11076,33 +11892,14 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E5:CR35">
+  <conditionalFormatting sqref="E5:CR42">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(MONTH(NOW())=E$5,DAY(NOW())=E$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:CR37">
+  <conditionalFormatting sqref="E44:CR44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(MONTH(NOW())=E$5,DAY(NOW())=E$6)</formula>
     </cfRule>
